--- a/StudentData/Assessments/Unit5/5.2.2/Rusty_Recovery.xlsx
+++ b/StudentData/Assessments/Unit5/5.2.2/Rusty_Recovery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc.sharepoint.com/sites/SophiaAcademicsCD/PW/Business Data Analytics/Assessments/Assessment Data/Unit 4/4.2.2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Assessments/Unit5/5.2.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{210361A4-D3D7-471A-9F00-6012E2014D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{DFC6BEEA-4F12-47B4-8E0F-6A8A9A94EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1975C0CB-42FA-4849-A459-E306E3D03C37}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{1975C0CB-42FA-4849-A459-E306E3D03C37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,8 +63,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -92,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,26 +437,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAB9CD6-3AD2-46E7-8316-CAC0DA3FE27D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.53515625" customWidth="1"/>
+    <col min="2" max="2" width="15.15234375" customWidth="1"/>
+    <col min="3" max="3" width="17.4609375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -458,7 +473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -469,7 +484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -480,7 +495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -493,19 +508,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -769,6 +776,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -784,13 +800,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76951EE2-94DE-474A-B93D-60567E09A1BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0013E0-98BB-49A1-B8AB-07D4BDC72CEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0013E0-98BB-49A1-B8AB-07D4BDC72CEA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76951EE2-94DE-474A-B93D-60567E09A1BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B3A2109-B206-4381-BF58-AE19F9B9A7D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B3A2109-B206-4381-BF58-AE19F9B9A7D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>